--- a/Ultima Weapon Positioning.xlsx
+++ b/Ultima Weapon Positioning.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Personal\Ultima\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grant\Documents\GitHub\Ultima-VII-Artwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF7EF32-E292-484F-A51F-A2640249C26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B0859A-8A2E-45BC-BE73-FC42C1D0FEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{057E076D-43A7-4220-A400-8F6F488AF9C4}"/>
+    <workbookView xWindow="29640" yWindow="300" windowWidth="14805" windowHeight="15480" activeTab="1" xr2:uid="{057E076D-43A7-4220-A400-8F6F488AF9C4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Paperdolls" sheetId="1" r:id="rId1"/>
+    <sheet name="Shapes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="405">
   <si>
     <t>X</t>
   </si>
@@ -63,108 +63,24 @@
     <t>arrow_arrow.00</t>
   </si>
   <si>
-    <t>arrow_arrow.01</t>
-  </si>
-  <si>
-    <t>arrow_arrow.02</t>
-  </si>
-  <si>
-    <t>arrow_arrow.03</t>
-  </si>
-  <si>
-    <t>arrow_arrow.04</t>
-  </si>
-  <si>
     <t>arrow_burst.00</t>
   </si>
   <si>
-    <t>arrow_burst.01</t>
-  </si>
-  <si>
-    <t>arrow_burst.02</t>
-  </si>
-  <si>
-    <t>arrow_burst.03</t>
-  </si>
-  <si>
-    <t>arrow_burst.04</t>
-  </si>
-  <si>
     <t>arrow_love.00</t>
   </si>
   <si>
-    <t>arrow_love.01</t>
-  </si>
-  <si>
-    <t>arrow_love.02</t>
-  </si>
-  <si>
-    <t>arrow_love.03</t>
-  </si>
-  <si>
-    <t>arrow_love.04</t>
-  </si>
-  <si>
     <t>arrow_lucky.00</t>
   </si>
   <si>
-    <t>arrow_lucky.01</t>
-  </si>
-  <si>
-    <t>arrow_lucky.02</t>
-  </si>
-  <si>
-    <t>arrow_lucky.03</t>
-  </si>
-  <si>
-    <t>arrow_lucky.04</t>
-  </si>
-  <si>
     <t>arrow_magic.00</t>
   </si>
   <si>
-    <t>arrow_magic.01</t>
-  </si>
-  <si>
-    <t>arrow_magic.02</t>
-  </si>
-  <si>
-    <t>arrow_magic.03</t>
-  </si>
-  <si>
-    <t>arrow_magic.04</t>
-  </si>
-  <si>
     <t>arrow_serpent.00</t>
   </si>
   <si>
-    <t>arrow_serpent.01</t>
-  </si>
-  <si>
-    <t>arrow_serpent.02</t>
-  </si>
-  <si>
-    <t>arrow_serpent.03</t>
-  </si>
-  <si>
-    <t>arrow_serpent.04</t>
-  </si>
-  <si>
     <t>arrow_sleep.00</t>
   </si>
   <si>
-    <t>arrow_sleep.01</t>
-  </si>
-  <si>
-    <t>arrow_sleep.02</t>
-  </si>
-  <si>
-    <t>arrow_sleep.03</t>
-  </si>
-  <si>
-    <t>arrow_sleep.04</t>
-  </si>
-  <si>
     <t>axe_axe.00</t>
   </si>
   <si>
@@ -276,48 +192,12 @@
     <t>bolt_bolt.00</t>
   </si>
   <si>
-    <t>bolt_bolt.01</t>
-  </si>
-  <si>
-    <t>bolt_bolt.02</t>
-  </si>
-  <si>
-    <t>bolt_bolt.03</t>
-  </si>
-  <si>
-    <t>bolt_bolt.04</t>
-  </si>
-  <si>
     <t>bolt_lightning.00</t>
   </si>
   <si>
-    <t>bolt_lightning.01</t>
-  </si>
-  <si>
-    <t>bolt_lightning.02</t>
-  </si>
-  <si>
-    <t>bolt_lightning.03</t>
-  </si>
-  <si>
-    <t>bolt_lightning.04</t>
-  </si>
-  <si>
     <t>bolt_magic.00</t>
   </si>
   <si>
-    <t>bolt_magic.01</t>
-  </si>
-  <si>
-    <t>bolt_magic.02</t>
-  </si>
-  <si>
-    <t>bolt_magic.03</t>
-  </si>
-  <si>
-    <t>bolt_magic.04</t>
-  </si>
-  <si>
     <t>bow_blood.00</t>
   </si>
   <si>
@@ -1296,15 +1176,6 @@
     <t>wand_zot.02</t>
   </si>
   <si>
-    <t>polearm_spear.00 (alt)</t>
-  </si>
-  <si>
-    <t>polearm_spear.01 (alt)</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
     <t>wand_sceptre_00</t>
   </si>
   <si>
@@ -1360,6 +1231,27 @@
   </si>
   <si>
     <t>Weapon Position Offsets</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>In Hand</t>
+  </si>
+  <si>
+    <t>Sound1</t>
+  </si>
+  <si>
+    <t>Sound2</t>
+  </si>
+  <si>
+    <t>Sound3</t>
+  </si>
+  <si>
+    <t>Consume?</t>
+  </si>
+  <si>
+    <t>Missile Shape</t>
   </si>
 </sst>
 </file>
@@ -1746,11 +1638,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92D9604-39C7-4EAA-882C-2BC6872FDDCD}">
   <dimension ref="A1:C403"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,10 +1653,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>440</v>
+        <v>397</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -1779,7 +1671,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1790,7 +1682,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>-1</v>
@@ -1801,7 +1693,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>32</v>
@@ -1812,7 +1704,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1823,7 +1715,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>-1</v>
@@ -1834,7 +1726,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>32</v>
@@ -1845,7 +1737,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1856,7 +1748,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>-1</v>
@@ -1867,7 +1759,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>33</v>
@@ -1878,7 +1770,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1889,7 +1781,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>-1</v>
@@ -1900,7 +1792,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>33</v>
@@ -1911,7 +1803,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1922,7 +1814,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>-1</v>
@@ -1933,7 +1825,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>26</v>
@@ -1944,7 +1836,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1955,7 +1847,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>-1</v>
@@ -1966,7 +1858,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>32</v>
@@ -1977,7 +1869,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1988,7 +1880,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>-1</v>
@@ -1999,7 +1891,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>27</v>
@@ -2010,7 +1902,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -2021,7 +1913,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B25">
         <v>-1</v>
@@ -2032,7 +1924,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -2043,7 +1935,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2054,7 +1946,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B28">
         <v>-2</v>
@@ -2065,7 +1957,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B29">
         <v>24</v>
@@ -2076,7 +1968,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2087,7 +1979,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B31">
         <v>-2</v>
@@ -2098,7 +1990,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B32">
         <v>24</v>
@@ -2109,7 +2001,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2120,7 +2012,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="B34">
         <v>-3</v>
@@ -2131,7 +2023,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="B35">
         <v>26</v>
@@ -2142,7 +2034,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -2153,7 +2045,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="B37">
         <v>-1</v>
@@ -2164,7 +2056,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2175,7 +2067,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -2186,7 +2078,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="B40">
         <v>-1</v>
@@ -2197,7 +2089,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2208,7 +2100,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -2219,7 +2111,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="B43">
         <v>-1</v>
@@ -2230,7 +2122,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2241,7 +2133,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -2252,7 +2144,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="B46">
         <v>-1</v>
@@ -2263,7 +2155,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2274,7 +2166,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -2285,7 +2177,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2296,7 +2188,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2307,7 +2199,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -2318,7 +2210,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="B52">
         <v>-1</v>
@@ -2329,7 +2221,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="B53">
         <v>21</v>
@@ -2340,7 +2232,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -2351,7 +2243,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="B55">
         <v>-1</v>
@@ -2362,7 +2254,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2373,7 +2265,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -2384,7 +2276,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="B58">
         <v>-1</v>
@@ -2395,7 +2287,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2406,7 +2298,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -2417,7 +2309,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2428,7 +2320,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="B62">
         <v>29</v>
@@ -2439,7 +2331,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -2450,7 +2342,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2461,7 +2353,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="B65">
         <v>23</v>
@@ -2472,7 +2364,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -2483,7 +2375,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="B67">
         <v>-1</v>
@@ -2494,7 +2386,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="B68">
         <v>27</v>
@@ -2505,7 +2397,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -2516,7 +2408,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="B70">
         <v>-2</v>
@@ -2527,7 +2419,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="B71">
         <v>24</v>
@@ -2538,7 +2430,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -2549,7 +2441,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="B73">
         <v>-1</v>
@@ -2560,7 +2452,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="B74">
         <v>27</v>
@@ -2571,7 +2463,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -2582,7 +2474,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="B76">
         <v>-2</v>
@@ -2593,7 +2485,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="B77">
         <v>24</v>
@@ -2604,7 +2496,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -2615,7 +2507,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="B79">
         <v>-1</v>
@@ -2626,7 +2518,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="B80">
         <v>27</v>
@@ -2637,7 +2529,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="B81">
         <v>3</v>
@@ -2648,7 +2540,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2659,7 +2551,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="B83">
         <v>27</v>
@@ -2670,7 +2562,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="B84">
         <v>3</v>
@@ -2681,7 +2573,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2692,7 +2584,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="B86">
         <v>27</v>
@@ -2703,7 +2595,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -2714,7 +2606,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="B88">
         <v>-1</v>
@@ -2725,7 +2617,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="B89">
         <v>22</v>
@@ -2736,7 +2628,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -2747,7 +2639,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2758,7 +2650,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="B92">
         <v>27</v>
@@ -2769,7 +2661,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -2780,7 +2672,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="B94">
         <v>-1</v>
@@ -2791,7 +2683,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="B95">
         <v>26</v>
@@ -2802,7 +2694,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -2813,7 +2705,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="B97">
         <v>-1</v>
@@ -2824,7 +2716,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="B98">
         <v>24</v>
@@ -2835,7 +2727,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -2846,7 +2738,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="B100">
         <v>-1</v>
@@ -2857,7 +2749,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="B101">
         <v>24</v>
@@ -2868,7 +2760,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -2879,7 +2771,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="B103">
         <v>-1</v>
@@ -2890,7 +2782,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="B104">
         <v>26</v>
@@ -2901,7 +2793,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -2912,7 +2804,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="B106">
         <v>-1</v>
@@ -2923,7 +2815,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="B107">
         <v>24</v>
@@ -2934,7 +2826,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B108">
         <v>3</v>
@@ -2945,7 +2837,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2956,7 +2848,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="B110">
         <v>21</v>
@@ -2967,7 +2859,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -2978,7 +2870,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="B112">
         <v>-1</v>
@@ -2989,7 +2881,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="B113">
         <v>25</v>
@@ -3000,7 +2892,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -3011,7 +2903,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="B115">
         <v>-1</v>
@@ -3022,7 +2914,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="B116">
         <v>26</v>
@@ -3033,7 +2925,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="B117">
         <v>3</v>
@@ -3044,7 +2936,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -3055,7 +2947,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="B119">
         <v>27</v>
@@ -3066,7 +2958,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="B120">
         <v>3</v>
@@ -3077,7 +2969,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -3088,7 +2980,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="B122">
         <v>26</v>
@@ -3099,7 +2991,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="B123">
         <v>2</v>
@@ -3110,7 +3002,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="B124">
         <v>-1</v>
@@ -3121,7 +3013,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="B125">
         <v>26</v>
@@ -3132,7 +3024,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="B126">
         <v>13</v>
@@ -3143,7 +3035,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="B127">
         <v>10</v>
@@ -3154,7 +3046,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="B128">
         <v>36</v>
@@ -3165,7 +3057,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="B129">
         <v>4</v>
@@ -3176,7 +3068,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -3187,7 +3079,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="B131">
         <v>20</v>
@@ -3198,7 +3090,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="B132">
         <v>3</v>
@@ -3209,7 +3101,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -3220,7 +3112,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="B134">
         <v>19</v>
@@ -3231,7 +3123,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="B135">
         <v>2</v>
@@ -3242,7 +3134,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="B136">
         <v>-1</v>
@@ -3253,7 +3145,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="B137">
         <v>28</v>
@@ -3264,7 +3156,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="B138">
         <v>2</v>
@@ -3275,7 +3167,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="B139">
         <v>-1</v>
@@ -3286,7 +3178,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="B140">
         <v>28</v>
@@ -3297,7 +3189,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="B141">
         <v>2</v>
@@ -3308,7 +3200,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="B142">
         <v>-1</v>
@@ -3319,7 +3211,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="B143">
         <v>28</v>
@@ -3330,7 +3222,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="B144">
         <v>2</v>
@@ -3341,7 +3233,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="B145">
         <v>-1</v>
@@ -3352,7 +3244,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="B146">
         <v>28</v>
@@ -3363,7 +3255,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="B147">
         <v>2</v>
@@ -3374,7 +3266,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="B148">
         <v>-1</v>
@@ -3385,7 +3277,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="B149">
         <v>28</v>
@@ -3396,7 +3288,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="B150">
         <v>2</v>
@@ -3407,7 +3299,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="B151">
         <v>-1</v>
@@ -3418,7 +3310,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="B152">
         <v>28</v>
@@ -3429,7 +3321,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="B153">
         <v>2</v>
@@ -3440,7 +3332,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="B154">
         <v>-1</v>
@@ -3451,7 +3343,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="B155">
         <v>28</v>
@@ -3462,7 +3354,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="B156">
         <v>2</v>
@@ -3473,7 +3365,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="B157">
         <v>-1</v>
@@ -3484,7 +3376,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="B158">
         <v>28</v>
@@ -3495,7 +3387,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="B159">
         <v>2</v>
@@ -3506,7 +3398,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="B160">
         <v>-1</v>
@@ -3517,7 +3409,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="B161">
         <v>28</v>
@@ -3528,7 +3420,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -3539,7 +3431,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="B163">
         <v>-1</v>
@@ -3550,7 +3442,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="B164">
         <v>28</v>
@@ -3561,7 +3453,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="B165">
         <v>3</v>
@@ -3572,7 +3464,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3583,7 +3475,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="B167">
         <v>28</v>
@@ -3594,7 +3486,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="B168">
         <v>2</v>
@@ -3605,7 +3497,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="B169">
         <v>-1</v>
@@ -3616,7 +3508,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="B170">
         <v>28</v>
@@ -3627,7 +3519,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="B171">
         <v>2</v>
@@ -3638,7 +3530,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="B172">
         <v>-1</v>
@@ -3649,7 +3541,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="B173">
         <v>28</v>
@@ -3660,7 +3552,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="B174">
         <v>2</v>
@@ -3671,7 +3563,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="B175">
         <v>-1</v>
@@ -3682,7 +3574,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="B176">
         <v>28</v>
@@ -3693,7 +3585,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="B177">
         <v>3</v>
@@ -3704,7 +3596,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -3715,7 +3607,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="B179">
         <v>30</v>
@@ -3726,7 +3618,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -3737,7 +3629,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="B181">
         <v>-1</v>
@@ -3748,7 +3640,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="B182">
         <v>28</v>
@@ -3759,7 +3651,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="B183">
         <v>2</v>
@@ -3770,7 +3662,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="B184">
         <v>-1</v>
@@ -3781,7 +3673,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="B185">
         <v>30</v>
@@ -3792,7 +3684,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B186">
         <v>2</v>
@@ -3803,7 +3695,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="B187">
         <v>-1</v>
@@ -3814,7 +3706,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="B188">
         <v>28</v>
@@ -3825,7 +3717,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="B189">
         <v>2</v>
@@ -3836,7 +3728,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="B190">
         <v>-1</v>
@@ -3847,7 +3739,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="B191">
         <v>28</v>
@@ -3858,7 +3750,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="B192">
         <v>2</v>
@@ -3869,7 +3761,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="B193">
         <v>-1</v>
@@ -3880,7 +3772,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="B194">
         <v>29</v>
@@ -3891,7 +3783,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="B195">
         <v>3</v>
@@ -3902,7 +3794,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -3913,7 +3805,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="B197">
         <v>28</v>
@@ -3924,7 +3816,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="B198">
         <v>2</v>
@@ -3935,7 +3827,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="B199">
         <v>-1</v>
@@ -3946,7 +3838,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="B200">
         <v>28</v>
@@ -3957,7 +3849,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="B201">
         <v>2</v>
@@ -3968,7 +3860,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="B202">
         <v>-1</v>
@@ -3979,7 +3871,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="B203">
         <v>28</v>
@@ -3990,7 +3882,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="B204">
         <v>2</v>
@@ -4001,7 +3893,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="B205">
         <v>-1</v>
@@ -4012,7 +3904,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="B206">
         <v>30</v>
@@ -4023,7 +3915,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="B207">
         <v>2</v>
@@ -4034,7 +3926,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="B208">
         <v>-1</v>
@@ -4045,7 +3937,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="B209">
         <v>29</v>
@@ -4056,7 +3948,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -4067,7 +3959,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="B211">
         <v>-1</v>
@@ -4078,7 +3970,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="B212">
         <v>8</v>
@@ -4089,7 +3981,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="B213">
         <v>2</v>
@@ -4100,7 +3992,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="B214">
         <v>-1</v>
@@ -4111,7 +4003,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="B215">
         <v>28</v>
@@ -4122,7 +4014,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="B216">
         <v>3</v>
@@ -4133,7 +4025,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -4144,7 +4036,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="B218">
         <v>28</v>
@@ -4155,7 +4047,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="B219">
         <v>2</v>
@@ -4166,7 +4058,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="B220">
         <v>-1</v>
@@ -4177,7 +4069,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="B221">
         <v>28</v>
@@ -4188,7 +4080,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -4199,7 +4091,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="B223">
         <v>-1</v>
@@ -4210,7 +4102,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="B224">
         <v>28</v>
@@ -4221,7 +4113,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>377</v>
+        <v>337</v>
       </c>
       <c r="B225">
         <v>-3</v>
@@ -4232,7 +4124,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="B226">
         <v>-6</v>
@@ -4243,7 +4135,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="B227">
         <v>17</v>
@@ -4254,7 +4146,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -4265,7 +4157,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -4276,7 +4168,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="B230">
         <v>15</v>
@@ -4287,7 +4179,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="B231">
         <v>-2</v>
@@ -4298,7 +4190,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="B232">
         <v>-5</v>
@@ -4309,7 +4201,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="B233">
         <v>17</v>
@@ -4320,7 +4212,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -4331,7 +4223,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="B235">
         <v>-3</v>
@@ -4342,7 +4234,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="B236">
         <v>17</v>
@@ -4353,7 +4245,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="B237">
         <v>14</v>
@@ -4364,7 +4256,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="B238">
         <v>11</v>
@@ -4375,7 +4267,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="B239">
         <v>11</v>
@@ -4386,7 +4278,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -4397,7 +4289,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="B241">
         <v>-2</v>
@@ -4408,7 +4300,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="B242">
         <v>26</v>
@@ -4419,7 +4311,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -4430,7 +4322,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="B244">
         <v>-2</v>
@@ -4441,7 +4333,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
       <c r="B245">
         <v>26</v>
@@ -4452,7 +4344,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -4463,7 +4355,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="B247">
         <v>-2</v>
@@ -4474,7 +4366,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="B248">
         <v>26</v>
@@ -4485,7 +4377,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -4496,7 +4388,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="B250">
         <v>-2</v>
@@ -4507,7 +4399,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="B251">
         <v>28</v>
@@ -4518,7 +4410,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -4529,7 +4421,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="B253">
         <v>-2</v>
@@ -4540,7 +4432,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="B254">
         <v>28</v>
@@ -4551,7 +4443,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -4562,7 +4454,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B256">
         <v>-2</v>
@@ -4573,7 +4465,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="B257">
         <v>25</v>
@@ -4584,7 +4476,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="B258">
         <v>2</v>
@@ -4595,7 +4487,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="B259">
         <v>-1</v>
@@ -4606,7 +4498,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="B260">
         <v>26</v>
@@ -4617,7 +4509,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>422</v>
+        <v>379</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -4628,7 +4520,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>423</v>
+        <v>380</v>
       </c>
       <c r="B262">
         <v>-2</v>
@@ -4639,7 +4531,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>424</v>
+        <v>381</v>
       </c>
       <c r="B263">
         <v>27</v>
@@ -4650,7 +4542,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="B264">
         <v>2</v>
@@ -4661,7 +4553,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="B265">
         <v>-1</v>
@@ -4672,7 +4564,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="B266">
         <v>30</v>
@@ -4683,7 +4575,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="B267">
         <v>2</v>
@@ -4694,7 +4586,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="B268">
         <v>-1</v>
@@ -4705,7 +4597,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>427</v>
+        <v>384</v>
       </c>
       <c r="B269">
         <v>30</v>
@@ -4716,7 +4608,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="B270">
         <v>2</v>
@@ -4727,7 +4619,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="B271">
         <v>-1</v>
@@ -4738,7 +4630,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="B272">
         <v>26</v>
@@ -4749,7 +4641,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B274">
         <v>23</v>
@@ -4760,7 +4652,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B275">
         <v>35</v>
@@ -4771,7 +4663,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="B276">
         <v>23</v>
@@ -4782,7 +4674,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B277">
         <v>33</v>
@@ -4793,7 +4685,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="B278">
         <v>23</v>
@@ -4804,7 +4696,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B279">
         <v>35</v>
@@ -4815,7 +4707,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="B280">
         <v>23</v>
@@ -4826,7 +4718,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="B281">
         <v>32</v>
@@ -4837,7 +4729,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="B282">
         <v>24</v>
@@ -4848,7 +4740,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="B283">
         <v>32</v>
@@ -4859,7 +4751,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="B284">
         <v>23</v>
@@ -4870,7 +4762,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="B285">
         <v>31</v>
@@ -4881,7 +4773,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="B286">
         <v>23</v>
@@ -4892,7 +4784,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="B287">
         <v>32</v>
@@ -4903,7 +4795,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="B288">
         <v>23</v>
@@ -4914,7 +4806,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="B289">
         <v>40</v>
@@ -4925,7 +4817,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="B290">
         <v>23</v>
@@ -4936,7 +4828,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="B291">
         <v>40</v>
@@ -4947,7 +4839,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="B292">
         <v>23</v>
@@ -4958,7 +4850,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="B293">
         <v>40</v>
@@ -4969,7 +4861,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="B294">
         <v>23</v>
@@ -4980,7 +4872,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="B295">
         <v>39</v>
@@ -4991,7 +4883,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="B296">
         <v>23</v>
@@ -5002,7 +4894,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="B297">
         <v>40</v>
@@ -5013,7 +4905,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="B298">
         <v>23</v>
@@ -5024,7 +4916,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="B299">
         <v>40</v>
@@ -5035,7 +4927,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="B301">
         <v>13</v>
@@ -5046,7 +4938,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="B302">
         <v>35</v>
@@ -5057,7 +4949,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="B303">
         <v>13</v>
@@ -5068,7 +4960,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="B304">
         <v>37</v>
@@ -5079,7 +4971,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="B305">
         <v>14</v>
@@ -5090,7 +4982,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="B306">
         <v>36</v>
@@ -5101,7 +4993,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="B307">
         <v>13</v>
@@ -5112,7 +5004,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="B308">
         <v>35</v>
@@ -5123,7 +5015,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="B309">
         <v>14</v>
@@ -5134,7 +5026,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="B310">
         <v>36</v>
@@ -5145,7 +5037,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="B311">
         <v>13</v>
@@ -5156,7 +5048,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="B312">
         <v>41</v>
@@ -5167,7 +5059,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>430</v>
+        <v>387</v>
       </c>
       <c r="B313">
         <v>13</v>
@@ -5178,7 +5070,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>431</v>
+        <v>388</v>
       </c>
       <c r="B314">
         <v>35</v>
@@ -5189,7 +5081,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="B315">
         <v>13</v>
@@ -5200,7 +5092,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="B316">
         <v>36</v>
@@ -5211,7 +5103,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="B317">
         <v>20</v>
@@ -5222,7 +5114,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="B318">
         <v>42</v>
@@ -5233,7 +5125,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="B319">
         <v>13</v>
@@ -5244,7 +5136,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="B320">
         <v>35</v>
@@ -5255,7 +5147,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="B321">
         <v>13</v>
@@ -5266,7 +5158,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="B322">
         <v>35</v>
@@ -5277,7 +5169,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>432</v>
+        <v>389</v>
       </c>
       <c r="B323">
         <v>13</v>
@@ -5288,7 +5180,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="B324">
         <v>35</v>
@@ -5299,7 +5191,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="B325">
         <v>13</v>
@@ -5310,7 +5202,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="B326">
         <v>34</v>
@@ -5321,7 +5213,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="B327">
         <v>17</v>
@@ -5332,7 +5224,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="B328">
         <v>40</v>
@@ -5343,7 +5235,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="B329">
         <v>13</v>
@@ -5354,7 +5246,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="B330">
         <v>36</v>
@@ -5365,7 +5257,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="B331">
         <v>13</v>
@@ -5376,7 +5268,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="B332">
         <v>35</v>
@@ -5387,7 +5279,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="B333">
         <v>13</v>
@@ -5398,7 +5290,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="B334">
         <v>36</v>
@@ -5409,7 +5301,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="B335">
         <v>13</v>
@@ -5420,7 +5312,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="B336">
         <v>35</v>
@@ -5431,7 +5323,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>434</v>
+        <v>391</v>
       </c>
       <c r="B337">
         <v>13</v>
@@ -5442,7 +5334,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>435</v>
+        <v>392</v>
       </c>
       <c r="B338">
         <v>35</v>
@@ -5453,7 +5345,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="B339">
         <v>13</v>
@@ -5464,7 +5356,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="B340">
         <v>36</v>
@@ -5475,7 +5367,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="B341">
         <v>13</v>
@@ -5486,7 +5378,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="B342">
         <v>35</v>
@@ -5497,7 +5389,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>436</v>
+        <v>393</v>
       </c>
       <c r="B343">
         <v>13</v>
@@ -5508,7 +5400,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>437</v>
+        <v>394</v>
       </c>
       <c r="B344">
         <v>35</v>
@@ -5519,7 +5411,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="B345">
         <v>13</v>
@@ -5530,7 +5422,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="B346">
         <v>36</v>
@@ -5541,7 +5433,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="B347">
         <v>13</v>
@@ -5552,7 +5444,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="B348">
         <v>41</v>
@@ -5563,7 +5455,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="B349">
         <v>13</v>
@@ -5574,7 +5466,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="B350">
         <v>35</v>
@@ -5585,7 +5477,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="B351">
         <v>13</v>
@@ -5596,7 +5488,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="B352">
         <v>36</v>
@@ -5607,7 +5499,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="B353">
         <v>13</v>
@@ -5618,7 +5510,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="B354">
         <v>35</v>
@@ -5629,7 +5521,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>428</v>
+        <v>385</v>
       </c>
       <c r="B355">
         <v>13</v>
@@ -5640,7 +5532,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>429</v>
+        <v>386</v>
       </c>
       <c r="B356">
         <v>36</v>
@@ -5651,7 +5543,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>438</v>
+        <v>395</v>
       </c>
       <c r="B357">
         <v>13</v>
@@ -5662,7 +5554,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>439</v>
+        <v>396</v>
       </c>
       <c r="B358">
         <v>35</v>
@@ -5673,7 +5565,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="B360">
         <v>16</v>
@@ -5684,7 +5576,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B361">
         <v>36</v>
@@ -5695,7 +5587,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B362">
         <v>16</v>
@@ -5706,7 +5598,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B363">
         <v>36</v>
@@ -5717,7 +5609,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="B364">
         <v>16</v>
@@ -5728,7 +5620,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="B365">
         <v>36</v>
@@ -5739,7 +5631,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="B366">
         <v>16</v>
@@ -5750,7 +5642,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="B367">
         <v>36</v>
@@ -5761,7 +5653,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="B368">
         <v>15</v>
@@ -5772,7 +5664,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="B369">
         <v>35</v>
@@ -5783,7 +5675,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="B370">
         <v>16</v>
@@ -5794,7 +5686,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="B371">
         <v>36</v>
@@ -5805,7 +5697,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="B372">
         <v>15</v>
@@ -5816,7 +5708,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="B373">
         <v>35</v>
@@ -5827,7 +5719,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="B374">
         <v>5</v>
@@ -5838,7 +5730,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="B375">
         <v>28</v>
@@ -5849,7 +5741,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="B376">
         <v>5</v>
@@ -5860,7 +5752,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="B377">
         <v>28</v>
@@ -5871,7 +5763,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="B378">
         <v>5</v>
@@ -5882,7 +5774,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="B379">
         <v>24</v>
@@ -5893,7 +5785,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="B380">
         <v>5</v>
@@ -5904,7 +5796,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="B381">
         <v>28</v>
@@ -5915,7 +5807,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="B382">
         <v>5</v>
@@ -5926,7 +5818,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="B383">
         <v>28</v>
@@ -5937,12 +5829,12 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -6013,7 +5905,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B394">
         <v>44</v>
@@ -6024,7 +5916,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B395">
         <v>44</v>
@@ -6035,7 +5927,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B396">
         <v>45</v>
@@ -6046,7 +5938,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B397">
         <v>45</v>
@@ -6057,7 +5949,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B398">
         <v>45</v>
@@ -6068,7 +5960,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B399">
         <v>45</v>
@@ -6079,7 +5971,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B401">
         <v>44</v>
@@ -6090,7 +5982,7 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="B402">
         <v>45</v>
@@ -6101,7 +5993,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B403">
         <v>45</v>
@@ -6121,1806 +6013,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5D70C0-AAF3-4B43-812F-7250C41E9472}">
-  <dimension ref="A1:I264"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" t="s">
+        <v>403</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>400</v>
       </c>
       <c r="I1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" t="s">
-        <v>97</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" t="s">
-        <v>104</v>
-      </c>
-      <c r="H18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" t="s">
-        <v>107</v>
-      </c>
-      <c r="H21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" t="s">
-        <v>109</v>
-      </c>
-      <c r="H23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" t="s">
-        <v>110</v>
-      </c>
-      <c r="H24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" t="s">
-        <v>111</v>
-      </c>
-      <c r="H25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" t="s">
-        <v>112</v>
-      </c>
-      <c r="H26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" t="s">
-        <v>113</v>
-      </c>
-      <c r="H27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" t="s">
-        <v>114</v>
-      </c>
-      <c r="H28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" t="s">
-        <v>115</v>
-      </c>
-      <c r="H29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" t="s">
-        <v>150</v>
-      </c>
-      <c r="H31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" t="s">
-        <v>151</v>
-      </c>
-      <c r="H32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" t="s">
-        <v>176</v>
-      </c>
-      <c r="H33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" t="s">
-        <v>177</v>
-      </c>
-      <c r="H34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" t="s">
-        <v>190</v>
-      </c>
-      <c r="H35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>127</v>
-      </c>
-      <c r="C41" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>137</v>
-      </c>
-      <c r="C51" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>138</v>
-      </c>
-      <c r="C52" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>139</v>
-      </c>
-      <c r="C53" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>140</v>
-      </c>
-      <c r="C54" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>141</v>
-      </c>
-      <c r="C55" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>143</v>
-      </c>
-      <c r="C57" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>144</v>
-      </c>
-      <c r="C58" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>145</v>
-      </c>
-      <c r="C59" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>146</v>
-      </c>
-      <c r="C60" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>147</v>
-      </c>
-      <c r="C61" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>148</v>
-      </c>
-      <c r="C62" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>149</v>
-      </c>
-      <c r="C63" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>152</v>
-      </c>
-      <c r="C64" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>153</v>
-      </c>
-      <c r="C65" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>154</v>
-      </c>
-      <c r="C66" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>155</v>
-      </c>
-      <c r="C67" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>156</v>
-      </c>
-      <c r="C68" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>157</v>
-      </c>
-      <c r="C69" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>158</v>
-      </c>
-      <c r="C70" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>159</v>
-      </c>
-      <c r="C71" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>160</v>
-      </c>
-      <c r="C72" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>161</v>
-      </c>
-      <c r="C73" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>162</v>
-      </c>
-      <c r="C74" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>163</v>
-      </c>
-      <c r="C75" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>164</v>
-      </c>
-      <c r="C76" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>165</v>
-      </c>
-      <c r="C77" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>166</v>
-      </c>
-      <c r="C78" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>167</v>
-      </c>
-      <c r="C79" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>168</v>
-      </c>
-      <c r="C80" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>169</v>
-      </c>
-      <c r="C81" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>170</v>
-      </c>
-      <c r="C82" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>171</v>
-      </c>
-      <c r="C83" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>172</v>
-      </c>
-      <c r="C84" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>173</v>
-      </c>
-      <c r="C85" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>174</v>
-      </c>
-      <c r="C86" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>175</v>
-      </c>
-      <c r="C87" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>178</v>
-      </c>
-      <c r="C88" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>179</v>
-      </c>
-      <c r="C89" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>180</v>
-      </c>
-      <c r="C90" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>181</v>
-      </c>
-      <c r="C91" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>182</v>
-      </c>
-      <c r="C92" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>183</v>
-      </c>
-      <c r="C93" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>184</v>
-      </c>
-      <c r="C94" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>185</v>
-      </c>
-      <c r="C95" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>186</v>
-      </c>
-      <c r="C96" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>187</v>
-      </c>
-      <c r="C97" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>188</v>
-      </c>
-      <c r="C98" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>189</v>
-      </c>
-      <c r="C99" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>192</v>
-      </c>
-      <c r="C100" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="J1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>418</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>